--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV024-001 - Setup Custodian Investasi - General Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV024-001 - Setup Custodian Investasi - General Ubah Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30776EC0-A96F-458D-BA13-28510C4EE33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643C22B-F426-4C66-999D-7F5FB4A9272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Setup Custodian</t>
   </si>
   <si>
-    <t>QAS</t>
-  </si>
-  <si>
     <t>PREPARATION</t>
   </si>
   <si>
@@ -137,16 +134,19 @@
   </si>
   <si>
     <t>Edit dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>QAS EDIT</t>
   </si>
   <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi;
-Kode Custody : QAS;
+Kode Custody : QAST;
 Nama Custody : QAS EDIT</t>
   </si>
   <si>
-    <t>QAS EDIT</t>
+    <t>QAST</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -625,55 +625,55 @@
         <v>1</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="75" x14ac:dyDescent="0.25">
@@ -681,16 +681,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>39</v>
@@ -699,10 +699,10 @@
         <v>31246</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -714,10 +714,10 @@
         <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="6"/>
